--- a/assets/img2/Casting-ECLIPSE ROAD.xlsx
+++ b/assets/img2/Casting-ECLIPSE ROAD.xlsx
@@ -82,31 +82,100 @@
     <t>Entretenimento🎭</t>
   </si>
   <si>
-    <t>Estagiário da F1</t>
-  </si>
-  <si>
-    <t>340K</t>
+    <t>Memes Inteligentes</t>
+  </si>
+  <si>
+    <t>980K</t>
+  </si>
+  <si>
+    <t>Memes😆</t>
+  </si>
+  <si>
+    <t>Central do Brega</t>
+  </si>
+  <si>
+    <t>290K</t>
+  </si>
+  <si>
+    <t>Futebol⚽</t>
+  </si>
+  <si>
+    <t>Daniel Neckel</t>
+  </si>
+  <si>
+    <t>650K</t>
+  </si>
+  <si>
+    <t>Humor😂</t>
+  </si>
+  <si>
+    <t>Xarope com X</t>
+  </si>
+  <si>
+    <t>225K</t>
+  </si>
+  <si>
+    <t>Filipe Leme</t>
+  </si>
+  <si>
+    <t>3.9M</t>
+  </si>
+  <si>
+    <t>Splash and Go</t>
+  </si>
+  <si>
+    <t>298K</t>
   </si>
   <si>
     <t>Fórmula 1🏎️</t>
   </si>
   <si>
-    <t>Central do Brega</t>
-  </si>
-  <si>
-    <t>290K</t>
-  </si>
-  <si>
-    <t>Futebol⚽</t>
-  </si>
-  <si>
-    <t>Daniel Neckel</t>
-  </si>
-  <si>
-    <t>650K</t>
-  </si>
-  <si>
-    <t>Humor😂</t>
+    <t>Zanfa 2</t>
+  </si>
+  <si>
+    <t>60K</t>
+  </si>
+  <si>
+    <t>Zanfa</t>
+  </si>
+  <si>
+    <t>1.8M</t>
+  </si>
+  <si>
+    <t>Muito Humilde</t>
+  </si>
+  <si>
+    <t>480K</t>
+  </si>
+  <si>
+    <t>Futebol Nostálgico!</t>
+  </si>
+  <si>
+    <t>410K</t>
+  </si>
+  <si>
+    <t>Putones</t>
+  </si>
+  <si>
+    <t>620K</t>
+  </si>
+  <si>
+    <t>Comentarista Edu</t>
+  </si>
+  <si>
+    <t>1.3M</t>
+  </si>
+  <si>
+    <t>Meme Burros</t>
+  </si>
+  <si>
+    <t>590K</t>
+  </si>
+  <si>
+    <t>Poetas Fla</t>
+  </si>
+  <si>
+    <t>250K</t>
   </si>
   <si>
     <t>Iti malias</t>
@@ -118,34 +187,199 @@
     <t>Animais🦁</t>
   </si>
   <si>
-    <t>Filipe Leme</t>
-  </si>
-  <si>
-    <t>3.9M</t>
-  </si>
-  <si>
-    <t>Splash and Go</t>
-  </si>
-  <si>
-    <t>298K</t>
-  </si>
-  <si>
-    <t>Zanfa 2</t>
-  </si>
-  <si>
-    <t>60K</t>
-  </si>
-  <si>
-    <t>Zanfa</t>
-  </si>
-  <si>
-    <t>1.8M</t>
-  </si>
-  <si>
-    <t>Muito Humilde</t>
-  </si>
-  <si>
-    <t>480K</t>
+    <t>Paulo Batista</t>
+  </si>
+  <si>
+    <t>35K</t>
+  </si>
+  <si>
+    <t>Games🎮</t>
+  </si>
+  <si>
+    <t>FLA DA DEPRESSÃO</t>
+  </si>
+  <si>
+    <t>26M</t>
+  </si>
+  <si>
+    <t>Volta Rápida - F1</t>
+  </si>
+  <si>
+    <t>166K</t>
+  </si>
+  <si>
+    <t>Paola Costa</t>
+  </si>
+  <si>
+    <t>Memes para ver antes do acopalices</t>
+  </si>
+  <si>
+    <t>910K</t>
+  </si>
+  <si>
+    <t>Balota romantico</t>
+  </si>
+  <si>
+    <t>160K</t>
+  </si>
+  <si>
+    <t>Filipe Lemure</t>
+  </si>
+  <si>
+    <t>4.2M</t>
+  </si>
+  <si>
+    <t>DataFut</t>
+  </si>
+  <si>
+    <t>150K</t>
+  </si>
+  <si>
+    <t>Mari Caronas</t>
+  </si>
+  <si>
+    <t>80K</t>
+  </si>
+  <si>
+    <t>Massinha F1</t>
+  </si>
+  <si>
+    <t>129K</t>
+  </si>
+  <si>
+    <t>Puro suco do Brasil</t>
+  </si>
+  <si>
+    <t>550K</t>
+  </si>
+  <si>
+    <t>AnimeFla</t>
+  </si>
+  <si>
+    <t>Papos</t>
+  </si>
+  <si>
+    <t>175K</t>
+  </si>
+  <si>
+    <t>Culés News Br</t>
+  </si>
+  <si>
+    <t>90K</t>
+  </si>
+  <si>
+    <t>Brasileirão da Depressão</t>
+  </si>
+  <si>
+    <t>610K</t>
+  </si>
+  <si>
+    <t>Vittor the Creator</t>
+  </si>
+  <si>
+    <t>115K</t>
+  </si>
+  <si>
+    <t>SucumbaEA</t>
+  </si>
+  <si>
+    <t>500K</t>
+  </si>
+  <si>
+    <t>Sobre Corinthians</t>
+  </si>
+  <si>
+    <t>João Mercio</t>
+  </si>
+  <si>
+    <t>265K</t>
+  </si>
+  <si>
+    <t>Curiosidades PRL</t>
+  </si>
+  <si>
+    <t>190K</t>
+  </si>
+  <si>
+    <t>Pérolas da net</t>
+  </si>
+  <si>
+    <t>450K</t>
+  </si>
+  <si>
+    <t>Evangelicos</t>
+  </si>
+  <si>
+    <t>210K</t>
+  </si>
+  <si>
+    <t>Animes📺</t>
+  </si>
+  <si>
+    <t>Coisas de Maromba</t>
+  </si>
+  <si>
+    <t>205K</t>
+  </si>
+  <si>
+    <t>Academia🏋🏻</t>
+  </si>
+  <si>
+    <t>La Liga BR</t>
+  </si>
+  <si>
+    <t>140K</t>
+  </si>
+  <si>
+    <t>Comentários melhor que o post</t>
+  </si>
+  <si>
+    <t>170K</t>
+  </si>
+  <si>
+    <t>Página Séria</t>
+  </si>
+  <si>
+    <t>220K</t>
+  </si>
+  <si>
+    <t>Seriedade😐</t>
+  </si>
+  <si>
+    <t>Felipe Almeida</t>
+  </si>
+  <si>
+    <t>100K</t>
+  </si>
+  <si>
+    <t>PC Build Wizard</t>
+  </si>
+  <si>
+    <t>Curiosidades EU</t>
+  </si>
+  <si>
+    <t>Curiosidades BRL</t>
+  </si>
+  <si>
+    <t>Fora Academia</t>
+  </si>
+  <si>
+    <t>525K</t>
+  </si>
+  <si>
+    <t>Real Mil Grauu</t>
+  </si>
+  <si>
+    <t>180K</t>
+  </si>
+  <si>
+    <t>Mengão Rage Comics</t>
+  </si>
+  <si>
+    <t>Cortinas, o time do roubo</t>
+  </si>
+  <si>
+    <t>30K</t>
   </si>
   <si>
     <t>CR7 Brasil</t>
@@ -154,241 +388,7 @@
     <t>360K</t>
   </si>
   <si>
-    <t>Putones</t>
-  </si>
-  <si>
-    <t>620K</t>
-  </si>
-  <si>
-    <t>Comentarista Edu</t>
-  </si>
-  <si>
-    <t>1.3M</t>
-  </si>
-  <si>
-    <t>Meme Burros</t>
-  </si>
-  <si>
-    <t>590K</t>
-  </si>
-  <si>
-    <t>Memes😆</t>
-  </si>
-  <si>
-    <t>Fora Academia</t>
-  </si>
-  <si>
-    <t>525K</t>
-  </si>
-  <si>
-    <t>Academia🏋🏻</t>
-  </si>
-  <si>
-    <t>Xarope com X</t>
-  </si>
-  <si>
-    <t>225K</t>
-  </si>
-  <si>
-    <t>Memes Inteligentes</t>
-  </si>
-  <si>
-    <t>980K</t>
-  </si>
-  <si>
-    <t>Paulo Batista</t>
-  </si>
-  <si>
-    <t>35K</t>
-  </si>
-  <si>
-    <t>Games🎮</t>
-  </si>
-  <si>
-    <t>FLA DA DEPRESSÃO</t>
-  </si>
-  <si>
-    <t>26M</t>
-  </si>
-  <si>
-    <t>Volta Rápida - F1</t>
-  </si>
-  <si>
-    <t>166K</t>
-  </si>
-  <si>
-    <t>Paola Costa</t>
-  </si>
-  <si>
-    <t>Balotaromanticoo</t>
-  </si>
-  <si>
-    <t>160K</t>
-  </si>
-  <si>
-    <t>Filipe Lemure</t>
-  </si>
-  <si>
-    <t>4.2M</t>
-  </si>
-  <si>
-    <t>DataFut</t>
-  </si>
-  <si>
-    <t>150K</t>
-  </si>
-  <si>
-    <t>Mari Caronas</t>
-  </si>
-  <si>
-    <t>80K</t>
-  </si>
-  <si>
-    <t>Massinha F1</t>
-  </si>
-  <si>
-    <t>129K</t>
-  </si>
-  <si>
-    <t>Puro suco do Brasil</t>
-  </si>
-  <si>
-    <t>550K</t>
-  </si>
-  <si>
-    <t>AnimeFla</t>
-  </si>
-  <si>
-    <t>Papos</t>
-  </si>
-  <si>
-    <t>175K</t>
-  </si>
-  <si>
-    <t>Culés News Br</t>
-  </si>
-  <si>
-    <t>90K</t>
-  </si>
-  <si>
-    <t>Brasileirão da Depressão</t>
-  </si>
-  <si>
-    <t>610K</t>
-  </si>
-  <si>
-    <t>Vittor the Creator</t>
-  </si>
-  <si>
-    <t>115K</t>
-  </si>
-  <si>
-    <t>SucumbaEA</t>
-  </si>
-  <si>
-    <t>500K</t>
-  </si>
-  <si>
-    <t>Sobre Corinthians</t>
-  </si>
-  <si>
-    <t>João Mercio</t>
-  </si>
-  <si>
-    <t>265K</t>
-  </si>
-  <si>
-    <t>Curiosidades PRL</t>
-  </si>
-  <si>
-    <t>190K</t>
-  </si>
-  <si>
-    <t>Pérolas da net</t>
-  </si>
-  <si>
-    <t>450K</t>
-  </si>
-  <si>
-    <t>Evangelicos</t>
-  </si>
-  <si>
-    <t>210K</t>
-  </si>
-  <si>
-    <t>Animes📺</t>
-  </si>
-  <si>
-    <t>Coisas de Maromba</t>
-  </si>
-  <si>
-    <t>205K</t>
-  </si>
-  <si>
-    <t>La Liga BR</t>
-  </si>
-  <si>
-    <t>140K</t>
-  </si>
-  <si>
-    <t>Comentários melhor que o post</t>
-  </si>
-  <si>
-    <t>170K</t>
-  </si>
-  <si>
-    <t>Página Séria</t>
-  </si>
-  <si>
-    <t>220K</t>
-  </si>
-  <si>
-    <t>Seriedade😐</t>
-  </si>
-  <si>
-    <t>Felipe Almeida</t>
-  </si>
-  <si>
-    <t>100K</t>
-  </si>
-  <si>
-    <t>PC Build Wizard</t>
-  </si>
-  <si>
-    <t>Curiosidades EU</t>
-  </si>
-  <si>
-    <t>Curiosidades BRL</t>
-  </si>
-  <si>
-    <t>Poetas</t>
-  </si>
-  <si>
-    <t>250K</t>
-  </si>
-  <si>
-    <t>Real Mil Grauu</t>
-  </si>
-  <si>
-    <t>180K</t>
-  </si>
-  <si>
-    <t>Mengão Rage Comics</t>
-  </si>
-  <si>
-    <t>Cortinas, o time do roubo</t>
-  </si>
-  <si>
-    <t>30K</t>
-  </si>
-  <si>
     <t>perfil dedicado a gatinhos e peitos</t>
-  </si>
-  <si>
-    <t>Futebol Nostálgico!</t>
-  </si>
-  <si>
-    <t>410K</t>
   </si>
   <si>
     <t>LIBERTA DEPRE</t>
@@ -915,6 +915,9 @@
     <xf borderId="23" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="24" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="19" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -928,9 +931,6 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="22" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="24" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="25" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1416,8 +1416,8 @@
       <c r="F11" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="27" t="s">
-        <v>15</v>
+      <c r="G11" s="26" t="s">
+        <v>16</v>
       </c>
       <c r="H11" s="26" t="s">
         <v>16</v>
@@ -1425,7 +1425,7 @@
       <c r="I11" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="22" t="s">
+      <c r="J11" s="30" t="s">
         <v>16</v>
       </c>
       <c r="K11" s="22" t="s">
@@ -1463,7 +1463,7 @@
       <c r="J12" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="30" t="s">
+      <c r="K12" s="31" t="s">
         <v>15</v>
       </c>
       <c r="L12" s="28" t="s">
@@ -1516,7 +1516,7 @@
         <v>33</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F14" s="27" t="s">
         <v>15</v>
@@ -1524,13 +1524,13 @@
       <c r="G14" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="22" t="s">
+      <c r="H14" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="30" t="s">
         <v>16</v>
       </c>
       <c r="K14" s="22" t="s">
@@ -1545,10 +1545,10 @@
         <v>8.0</v>
       </c>
       <c r="C15" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>35</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>36</v>
       </c>
       <c r="E15" s="26" t="s">
         <v>22</v>
@@ -1562,7 +1562,7 @@
       <c r="H15" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="31" t="s">
+      <c r="I15" s="32" t="s">
         <v>15</v>
       </c>
       <c r="J15" s="26" t="s">
@@ -1571,8 +1571,8 @@
       <c r="K15" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="28" t="s">
-        <v>16</v>
+      <c r="L15" s="29" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1580,13 +1580,13 @@
         <v>9.0</v>
       </c>
       <c r="C16" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="E16" s="26" t="s">
         <v>38</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>25</v>
       </c>
       <c r="F16" s="27" t="s">
         <v>15</v>
@@ -1705,10 +1705,10 @@
       <c r="I19" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="30" t="s">
+      <c r="J19" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="31" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="28" t="s">
@@ -1740,7 +1740,7 @@
       <c r="I20" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="32" t="s">
+      <c r="J20" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K20" s="22" t="s">
@@ -1775,7 +1775,7 @@
       <c r="I21" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="32" t="s">
+      <c r="J21" s="30" t="s">
         <v>16</v>
       </c>
       <c r="K21" s="22" t="s">
@@ -1810,7 +1810,7 @@
       <c r="I22" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="J22" s="32" t="s">
+      <c r="J22" s="30" t="s">
         <v>16</v>
       </c>
       <c r="K22" s="22" t="s">
@@ -1831,7 +1831,7 @@
         <v>52</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="F23" s="27" t="s">
         <v>15</v>
@@ -1845,7 +1845,7 @@
       <c r="I23" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="32" t="s">
+      <c r="J23" s="30" t="s">
         <v>16</v>
       </c>
       <c r="K23" s="22" t="s">
@@ -1860,13 +1860,13 @@
         <v>17.0</v>
       </c>
       <c r="C24" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="26" t="s">
-        <v>55</v>
-      </c>
       <c r="E24" s="26" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="F24" s="27" t="s">
         <v>15</v>
@@ -1880,14 +1880,14 @@
       <c r="I24" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J24" s="32" t="s">
+      <c r="J24" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K24" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="L24" s="28" t="s">
-        <v>16</v>
+      <c r="L24" s="29" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -1895,27 +1895,27 @@
         <v>18.0</v>
       </c>
       <c r="C25" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>53</v>
-      </c>
       <c r="F25" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="32" t="s">
+      <c r="H25" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="22" t="s">
         <v>16</v>
       </c>
       <c r="K25" s="22" t="s">
@@ -1930,27 +1930,27 @@
         <v>19.0</v>
       </c>
       <c r="C26" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="E26" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="26" t="s">
-        <v>53</v>
-      </c>
       <c r="F26" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="26" t="s">
-        <v>16</v>
+      <c r="H26" s="27" t="s">
+        <v>15</v>
       </c>
       <c r="I26" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J26" s="32" t="s">
+      <c r="J26" s="30" t="s">
         <v>16</v>
       </c>
       <c r="K26" s="22" t="s">
@@ -1971,13 +1971,13 @@
         <v>62</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="F27" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="26" t="s">
-        <v>16</v>
+      <c r="G27" s="27" t="s">
+        <v>15</v>
       </c>
       <c r="H27" s="27" t="s">
         <v>15</v>
@@ -1985,8 +1985,8 @@
       <c r="I27" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J27" s="32" t="s">
-        <v>16</v>
+      <c r="J27" s="34" t="s">
+        <v>15</v>
       </c>
       <c r="K27" s="22" t="s">
         <v>16</v>
@@ -2000,13 +2000,13 @@
         <v>21.0</v>
       </c>
       <c r="C28" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="26" t="s">
-        <v>65</v>
-      </c>
       <c r="E28" s="26" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F28" s="27" t="s">
         <v>15</v>
@@ -2014,14 +2014,14 @@
       <c r="G28" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" s="33" t="s">
-        <v>15</v>
+      <c r="H28" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="30" t="s">
+        <v>16</v>
       </c>
       <c r="K28" s="22" t="s">
         <v>16</v>
@@ -2035,16 +2035,16 @@
         <v>22.0</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>16</v>
       </c>
       <c r="G29" s="27" t="s">
         <v>15</v>
@@ -2052,17 +2052,17 @@
       <c r="H29" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I29" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="32" t="s">
+      <c r="I29" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="30" t="s">
         <v>16</v>
       </c>
       <c r="K29" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="L29" s="28" t="s">
-        <v>16</v>
+      <c r="L29" s="29" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="30">
@@ -2070,19 +2070,19 @@
         <v>23.0</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="27" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>16</v>
       </c>
       <c r="H30" s="26" t="s">
         <v>16</v>
@@ -2090,7 +2090,7 @@
       <c r="I30" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J30" s="32" t="s">
+      <c r="J30" s="30" t="s">
         <v>16</v>
       </c>
       <c r="K30" s="22" t="s">
@@ -2105,10 +2105,10 @@
         <v>24.0</v>
       </c>
       <c r="C31" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="26" t="s">
         <v>69</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>70</v>
       </c>
       <c r="E31" s="26" t="s">
         <v>28</v>
@@ -2125,14 +2125,14 @@
       <c r="I31" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J31" s="32" t="s">
+      <c r="J31" s="30" t="s">
         <v>16</v>
       </c>
       <c r="K31" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="L31" s="28" t="s">
-        <v>16</v>
+      <c r="L31" s="29" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -2140,10 +2140,10 @@
         <v>25.0</v>
       </c>
       <c r="C32" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="26" t="s">
         <v>71</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>72</v>
       </c>
       <c r="E32" s="26" t="s">
         <v>22</v>
@@ -2157,10 +2157,10 @@
       <c r="H32" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" s="34" t="s">
+      <c r="I32" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="35" t="s">
         <v>16</v>
       </c>
       <c r="K32" s="22" t="s">
@@ -2175,10 +2175,10 @@
         <v>26.0</v>
       </c>
       <c r="C33" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="26" t="s">
         <v>73</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>74</v>
       </c>
       <c r="E33" s="26" t="s">
         <v>28</v>
@@ -2195,7 +2195,7 @@
       <c r="I33" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J33" s="32" t="s">
+      <c r="J33" s="30" t="s">
         <v>16</v>
       </c>
       <c r="K33" s="22" t="s">
@@ -2210,13 +2210,13 @@
         <v>27.0</v>
       </c>
       <c r="C34" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="26" t="s">
-        <v>76</v>
-      </c>
       <c r="E34" s="26" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="F34" s="27" t="s">
         <v>15</v>
@@ -2230,7 +2230,7 @@
       <c r="I34" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J34" s="32" t="s">
+      <c r="J34" s="30" t="s">
         <v>16</v>
       </c>
       <c r="K34" s="22" t="s">
@@ -2245,13 +2245,13 @@
         <v>28.0</v>
       </c>
       <c r="C35" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="26" t="s">
-        <v>78</v>
-      </c>
       <c r="E35" s="26" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F35" s="27" t="s">
         <v>15</v>
@@ -2265,7 +2265,7 @@
       <c r="I35" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J35" s="32" t="s">
+      <c r="J35" s="30" t="s">
         <v>16</v>
       </c>
       <c r="K35" s="22" t="s">
@@ -2280,13 +2280,13 @@
         <v>29.0</v>
       </c>
       <c r="C36" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="26" t="s">
-        <v>80</v>
-      </c>
       <c r="E36" s="26" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="F36" s="27" t="s">
         <v>15</v>
@@ -2300,7 +2300,7 @@
       <c r="I36" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J36" s="32" t="s">
+      <c r="J36" s="30" t="s">
         <v>16</v>
       </c>
       <c r="K36" s="22" t="s">
@@ -2315,10 +2315,10 @@
         <v>30.0</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E37" s="26" t="s">
         <v>28</v>
@@ -2335,10 +2335,10 @@
       <c r="I37" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="J37" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="K37" s="30" t="s">
+      <c r="J37" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="31" t="s">
         <v>15</v>
       </c>
       <c r="L37" s="28" t="s">
@@ -2350,10 +2350,10 @@
         <v>31.0</v>
       </c>
       <c r="C38" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="26" t="s">
         <v>82</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>83</v>
       </c>
       <c r="E38" s="26" t="s">
         <v>28</v>
@@ -2370,7 +2370,7 @@
       <c r="I38" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J38" s="32" t="s">
+      <c r="J38" s="30" t="s">
         <v>16</v>
       </c>
       <c r="K38" s="22" t="s">
@@ -2385,10 +2385,10 @@
         <v>32.0</v>
       </c>
       <c r="C39" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="26" t="s">
         <v>84</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>85</v>
       </c>
       <c r="E39" s="26" t="s">
         <v>28</v>
@@ -2405,7 +2405,7 @@
       <c r="I39" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="J39" s="32" t="s">
+      <c r="J39" s="30" t="s">
         <v>16</v>
       </c>
       <c r="K39" s="22" t="s">
@@ -2420,10 +2420,10 @@
         <v>33.0</v>
       </c>
       <c r="C40" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="26" t="s">
         <v>86</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>87</v>
       </c>
       <c r="E40" s="26" t="s">
         <v>28</v>
@@ -2440,7 +2440,7 @@
       <c r="I40" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J40" s="33" t="s">
+      <c r="J40" s="34" t="s">
         <v>15</v>
       </c>
       <c r="K40" s="22" t="s">
@@ -2455,10 +2455,10 @@
         <v>34.0</v>
       </c>
       <c r="C41" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="26" t="s">
         <v>88</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>89</v>
       </c>
       <c r="E41" s="26" t="s">
         <v>28</v>
@@ -2475,7 +2475,7 @@
       <c r="I41" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J41" s="35" t="s">
+      <c r="J41" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K41" s="22" t="s">
@@ -2490,13 +2490,13 @@
         <v>35.0</v>
       </c>
       <c r="C42" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="D42" s="26" t="s">
-        <v>91</v>
-      </c>
       <c r="E42" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F42" s="27" t="s">
         <v>15</v>
@@ -2510,7 +2510,7 @@
       <c r="I42" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="J42" s="33" t="s">
+      <c r="J42" s="34" t="s">
         <v>15</v>
       </c>
       <c r="K42" s="22" t="s">
@@ -2525,10 +2525,10 @@
         <v>36.0</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E43" s="26" t="s">
         <v>28</v>
@@ -2545,7 +2545,7 @@
       <c r="I43" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J43" s="35" t="s">
+      <c r="J43" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K43" s="22" t="s">
@@ -2560,10 +2560,10 @@
         <v>37.0</v>
       </c>
       <c r="C44" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="26" t="s">
         <v>93</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>94</v>
       </c>
       <c r="E44" s="26" t="s">
         <v>28</v>
@@ -2580,7 +2580,7 @@
       <c r="I44" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="J44" s="35" t="s">
+      <c r="J44" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K44" s="22" t="s">
@@ -2595,10 +2595,10 @@
         <v>38.0</v>
       </c>
       <c r="C45" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="26" t="s">
         <v>95</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>96</v>
       </c>
       <c r="E45" s="26" t="s">
         <v>28</v>
@@ -2615,7 +2615,7 @@
       <c r="I45" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J45" s="35" t="s">
+      <c r="J45" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K45" s="22" t="s">
@@ -2630,13 +2630,13 @@
         <v>39.0</v>
       </c>
       <c r="C46" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="D46" s="26" t="s">
-        <v>98</v>
-      </c>
       <c r="E46" s="26" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="F46" s="27" t="s">
         <v>15</v>
@@ -2650,7 +2650,7 @@
       <c r="I46" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J46" s="35" t="s">
+      <c r="J46" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K46" s="22" t="s">
@@ -2665,14 +2665,14 @@
         <v>40.0</v>
       </c>
       <c r="C47" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="D47" s="26" t="s">
+      <c r="E47" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="E47" s="26" t="s">
-        <v>101</v>
-      </c>
       <c r="F47" s="27" t="s">
         <v>15</v>
       </c>
@@ -2685,7 +2685,7 @@
       <c r="I47" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="J47" s="35" t="s">
+      <c r="J47" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K47" s="22" t="s">
@@ -2700,14 +2700,14 @@
         <v>41.0</v>
       </c>
       <c r="C48" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="E48" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="E48" s="26" t="s">
-        <v>56</v>
-      </c>
       <c r="F48" s="27" t="s">
         <v>15</v>
       </c>
@@ -2720,7 +2720,7 @@
       <c r="I48" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J48" s="35" t="s">
+      <c r="J48" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K48" s="22" t="s">
@@ -2755,7 +2755,7 @@
       <c r="I49" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J49" s="35" t="s">
+      <c r="J49" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K49" s="22" t="s">
@@ -2776,7 +2776,7 @@
         <v>107</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="F50" s="27" t="s">
         <v>15</v>
@@ -2790,7 +2790,7 @@
       <c r="I50" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J50" s="35" t="s">
+      <c r="J50" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K50" s="22" t="s">
@@ -2825,7 +2825,7 @@
       <c r="I51" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J51" s="35" t="s">
+      <c r="J51" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K51" s="22" t="s">
@@ -2846,7 +2846,7 @@
         <v>112</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F52" s="27" t="s">
         <v>15</v>
@@ -2860,7 +2860,7 @@
       <c r="I52" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J52" s="35" t="s">
+      <c r="J52" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K52" s="22" t="s">
@@ -2878,10 +2878,10 @@
         <v>113</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F53" s="27" t="s">
         <v>15</v>
@@ -2895,7 +2895,7 @@
       <c r="I53" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="35" t="s">
+      <c r="J53" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K53" s="22" t="s">
@@ -2913,7 +2913,7 @@
         <v>114</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="E54" s="26" t="s">
         <v>28</v>
@@ -2930,7 +2930,7 @@
       <c r="I54" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J54" s="35" t="s">
+      <c r="J54" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K54" s="22" t="s">
@@ -2948,7 +2948,7 @@
         <v>115</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E55" s="26" t="s">
         <v>28</v>
@@ -2965,7 +2965,7 @@
       <c r="I55" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J55" s="35" t="s">
+      <c r="J55" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K55" s="22" t="s">
@@ -2986,7 +2986,7 @@
         <v>117</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="F56" s="27" t="s">
         <v>15</v>
@@ -3000,7 +3000,7 @@
       <c r="I56" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J56" s="35" t="s">
+      <c r="J56" s="30" t="s">
         <v>16</v>
       </c>
       <c r="K56" s="22" t="s">
@@ -3035,7 +3035,7 @@
       <c r="I57" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="35" t="s">
+      <c r="J57" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K57" s="22" t="s">
@@ -3070,7 +3070,7 @@
       <c r="I58" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J58" s="35" t="s">
+      <c r="J58" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K58" s="22" t="s">
@@ -3105,7 +3105,7 @@
       <c r="I59" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J59" s="35" t="s">
+      <c r="J59" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K59" s="22" t="s">
@@ -3123,10 +3123,10 @@
         <v>123</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F60" s="27" t="s">
         <v>15</v>
@@ -3140,7 +3140,7 @@
       <c r="I60" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J60" s="35" t="s">
+      <c r="J60" s="30" t="s">
         <v>16</v>
       </c>
       <c r="K60" s="22" t="s">
@@ -3155,13 +3155,13 @@
         <v>54.0</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F61" s="27" t="s">
         <v>15</v>
@@ -3175,7 +3175,7 @@
       <c r="I61" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J61" s="35" t="s">
+      <c r="J61" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K61" s="22" t="s">
@@ -3193,7 +3193,7 @@
         <v>126</v>
       </c>
       <c r="D62" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E62" s="38" t="s">
         <v>28</v>
@@ -3248,6 +3248,12 @@
       <c r="K64" s="8"/>
       <c r="L64" s="9"/>
     </row>
+    <row r="70" hidden="1"/>
+    <row r="71" hidden="1"/>
+    <row r="72" hidden="1"/>
+    <row r="73" hidden="1"/>
+    <row r="74" hidden="1"/>
+    <row r="75" hidden="1"/>
     <row r="76" hidden="1"/>
     <row r="77" hidden="1"/>
     <row r="78" hidden="1"/>
@@ -4173,12 +4179,6 @@
     <row r="998" hidden="1"/>
     <row r="999" hidden="1"/>
     <row r="1000" hidden="1"/>
-    <row r="1001" hidden="1"/>
-    <row r="1002" hidden="1"/>
-    <row r="1003" hidden="1"/>
-    <row r="1004" hidden="1"/>
-    <row r="1005" hidden="1"/>
-    <row r="1006" hidden="1"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="G6:G7"/>
@@ -4209,127 +4209,130 @@
     <hyperlink r:id="rId10" ref="I10"/>
     <hyperlink r:id="rId11" ref="L10"/>
     <hyperlink r:id="rId12" ref="F11"/>
-    <hyperlink r:id="rId13" ref="G11"/>
-    <hyperlink r:id="rId14" ref="F12"/>
-    <hyperlink r:id="rId15" ref="G12"/>
-    <hyperlink r:id="rId16" ref="K12"/>
-    <hyperlink r:id="rId17" ref="F13"/>
-    <hyperlink r:id="rId18" ref="G13"/>
-    <hyperlink r:id="rId19" ref="H13"/>
-    <hyperlink r:id="rId20" ref="I13"/>
-    <hyperlink r:id="rId21" ref="F14"/>
-    <hyperlink r:id="rId22" ref="G14"/>
-    <hyperlink r:id="rId23" ref="F15"/>
-    <hyperlink r:id="rId24" ref="G15"/>
-    <hyperlink r:id="rId25" ref="H15"/>
-    <hyperlink r:id="rId26" ref="I15"/>
-    <hyperlink r:id="rId27" ref="F16"/>
-    <hyperlink r:id="rId28" ref="G16"/>
-    <hyperlink r:id="rId29" ref="H16"/>
-    <hyperlink r:id="rId30" ref="F17"/>
-    <hyperlink r:id="rId31" ref="G17"/>
-    <hyperlink r:id="rId32" ref="J17"/>
-    <hyperlink r:id="rId33" ref="F18"/>
-    <hyperlink r:id="rId34" ref="G18"/>
-    <hyperlink r:id="rId35" ref="J18"/>
-    <hyperlink r:id="rId36" ref="F19"/>
-    <hyperlink r:id="rId37" ref="G19"/>
-    <hyperlink r:id="rId38" ref="I19"/>
-    <hyperlink r:id="rId39" ref="K19"/>
-    <hyperlink r:id="rId40" ref="F20"/>
-    <hyperlink r:id="rId41" ref="G20"/>
-    <hyperlink r:id="rId42" ref="G21"/>
-    <hyperlink r:id="rId43" ref="H21"/>
-    <hyperlink r:id="rId44" ref="I21"/>
-    <hyperlink r:id="rId45" ref="F22"/>
-    <hyperlink r:id="rId46" ref="G22"/>
-    <hyperlink r:id="rId47" ref="H22"/>
-    <hyperlink r:id="rId48" ref="I22"/>
-    <hyperlink r:id="rId49" ref="F23"/>
-    <hyperlink r:id="rId50" ref="G23"/>
-    <hyperlink r:id="rId51" ref="F24"/>
-    <hyperlink r:id="rId52" ref="G24"/>
-    <hyperlink r:id="rId53" ref="F25"/>
-    <hyperlink r:id="rId54" ref="G25"/>
-    <hyperlink r:id="rId55" ref="H25"/>
-    <hyperlink r:id="rId56" ref="I25"/>
-    <hyperlink r:id="rId57" ref="F26"/>
-    <hyperlink r:id="rId58" ref="F27"/>
-    <hyperlink r:id="rId59" ref="H27"/>
-    <hyperlink r:id="rId60" ref="F28"/>
-    <hyperlink r:id="rId61" ref="G28"/>
-    <hyperlink r:id="rId62" ref="H28"/>
-    <hyperlink r:id="rId63" ref="J28"/>
-    <hyperlink r:id="rId64" ref="F29"/>
-    <hyperlink r:id="rId65" ref="G29"/>
-    <hyperlink r:id="rId66" ref="I29"/>
-    <hyperlink r:id="rId67" ref="G30"/>
-    <hyperlink r:id="rId68" ref="F31"/>
-    <hyperlink r:id="rId69" ref="F32"/>
-    <hyperlink r:id="rId70" ref="G32"/>
-    <hyperlink r:id="rId71" ref="H32"/>
-    <hyperlink r:id="rId72" ref="I32"/>
-    <hyperlink r:id="rId73" ref="G33"/>
-    <hyperlink r:id="rId74" ref="F34"/>
-    <hyperlink r:id="rId75" ref="G34"/>
-    <hyperlink r:id="rId76" ref="F35"/>
-    <hyperlink r:id="rId77" ref="G35"/>
-    <hyperlink r:id="rId78" ref="F36"/>
-    <hyperlink r:id="rId79" ref="F37"/>
-    <hyperlink r:id="rId80" ref="H37"/>
-    <hyperlink r:id="rId81" ref="I37"/>
-    <hyperlink r:id="rId82" ref="K37"/>
-    <hyperlink r:id="rId83" ref="F38"/>
-    <hyperlink r:id="rId84" ref="G38"/>
-    <hyperlink r:id="rId85" ref="F39"/>
-    <hyperlink r:id="rId86" ref="G39"/>
-    <hyperlink r:id="rId87" ref="I39"/>
-    <hyperlink r:id="rId88" ref="F40"/>
-    <hyperlink r:id="rId89" ref="G40"/>
-    <hyperlink r:id="rId90" ref="J40"/>
-    <hyperlink r:id="rId91" ref="F41"/>
-    <hyperlink r:id="rId92" ref="G41"/>
-    <hyperlink r:id="rId93" ref="F42"/>
-    <hyperlink r:id="rId94" ref="G42"/>
-    <hyperlink r:id="rId95" ref="I42"/>
-    <hyperlink r:id="rId96" ref="J42"/>
-    <hyperlink r:id="rId97" ref="F43"/>
-    <hyperlink r:id="rId98" ref="G43"/>
-    <hyperlink r:id="rId99" ref="F44"/>
-    <hyperlink r:id="rId100" ref="G44"/>
-    <hyperlink r:id="rId101" ref="H44"/>
-    <hyperlink r:id="rId102" ref="I44"/>
-    <hyperlink r:id="rId103" ref="F45"/>
-    <hyperlink r:id="rId104" ref="G45"/>
-    <hyperlink r:id="rId105" ref="F46"/>
-    <hyperlink r:id="rId106" ref="F47"/>
-    <hyperlink r:id="rId107" ref="G47"/>
-    <hyperlink r:id="rId108" ref="H47"/>
-    <hyperlink r:id="rId109" ref="I47"/>
-    <hyperlink r:id="rId110" ref="F48"/>
-    <hyperlink r:id="rId111" ref="F49"/>
-    <hyperlink r:id="rId112" ref="F50"/>
-    <hyperlink r:id="rId113" ref="F51"/>
-    <hyperlink r:id="rId114" ref="F52"/>
-    <hyperlink r:id="rId115" ref="G52"/>
-    <hyperlink r:id="rId116" ref="F53"/>
-    <hyperlink r:id="rId117" ref="H53"/>
-    <hyperlink r:id="rId118" ref="F54"/>
-    <hyperlink r:id="rId119" ref="F55"/>
-    <hyperlink r:id="rId120" ref="G55"/>
-    <hyperlink r:id="rId121" ref="F56"/>
-    <hyperlink r:id="rId122" ref="G56"/>
-    <hyperlink r:id="rId123" ref="F57"/>
-    <hyperlink r:id="rId124" ref="G57"/>
-    <hyperlink r:id="rId125" ref="F58"/>
-    <hyperlink r:id="rId126" ref="F59"/>
-    <hyperlink r:id="rId127" ref="F60"/>
-    <hyperlink r:id="rId128" ref="G60"/>
-    <hyperlink r:id="rId129" ref="F61"/>
-    <hyperlink r:id="rId130" ref="G61"/>
-    <hyperlink r:id="rId131" ref="F62"/>
-    <hyperlink r:id="rId132" ref="B63"/>
+    <hyperlink r:id="rId13" ref="F12"/>
+    <hyperlink r:id="rId14" ref="G12"/>
+    <hyperlink r:id="rId15" ref="K12"/>
+    <hyperlink r:id="rId16" ref="F13"/>
+    <hyperlink r:id="rId17" ref="G13"/>
+    <hyperlink r:id="rId18" ref="H13"/>
+    <hyperlink r:id="rId19" ref="I13"/>
+    <hyperlink r:id="rId20" ref="F14"/>
+    <hyperlink r:id="rId21" ref="G14"/>
+    <hyperlink r:id="rId22" ref="H14"/>
+    <hyperlink r:id="rId23" ref="I14"/>
+    <hyperlink r:id="rId24" ref="F15"/>
+    <hyperlink r:id="rId25" ref="G15"/>
+    <hyperlink r:id="rId26" ref="H15"/>
+    <hyperlink r:id="rId27" ref="I15"/>
+    <hyperlink r:id="rId28" ref="L15"/>
+    <hyperlink r:id="rId29" ref="F16"/>
+    <hyperlink r:id="rId30" ref="G16"/>
+    <hyperlink r:id="rId31" ref="H16"/>
+    <hyperlink r:id="rId32" ref="F17"/>
+    <hyperlink r:id="rId33" ref="G17"/>
+    <hyperlink r:id="rId34" ref="J17"/>
+    <hyperlink r:id="rId35" ref="F18"/>
+    <hyperlink r:id="rId36" ref="G18"/>
+    <hyperlink r:id="rId37" ref="J18"/>
+    <hyperlink r:id="rId38" ref="F19"/>
+    <hyperlink r:id="rId39" ref="G19"/>
+    <hyperlink r:id="rId40" ref="I19"/>
+    <hyperlink r:id="rId41" ref="K19"/>
+    <hyperlink r:id="rId42" ref="F20"/>
+    <hyperlink r:id="rId43" ref="G20"/>
+    <hyperlink r:id="rId44" ref="G21"/>
+    <hyperlink r:id="rId45" ref="H21"/>
+    <hyperlink r:id="rId46" ref="I21"/>
+    <hyperlink r:id="rId47" ref="F22"/>
+    <hyperlink r:id="rId48" ref="G22"/>
+    <hyperlink r:id="rId49" ref="H22"/>
+    <hyperlink r:id="rId50" ref="I22"/>
+    <hyperlink r:id="rId51" ref="F23"/>
+    <hyperlink r:id="rId52" ref="G23"/>
+    <hyperlink r:id="rId53" ref="F24"/>
+    <hyperlink r:id="rId54" ref="G24"/>
+    <hyperlink r:id="rId55" ref="L24"/>
+    <hyperlink r:id="rId56" ref="F25"/>
+    <hyperlink r:id="rId57" ref="G25"/>
+    <hyperlink r:id="rId58" ref="F26"/>
+    <hyperlink r:id="rId59" ref="H26"/>
+    <hyperlink r:id="rId60" ref="F27"/>
+    <hyperlink r:id="rId61" ref="G27"/>
+    <hyperlink r:id="rId62" ref="H27"/>
+    <hyperlink r:id="rId63" ref="J27"/>
+    <hyperlink r:id="rId64" ref="F28"/>
+    <hyperlink r:id="rId65" ref="G28"/>
+    <hyperlink r:id="rId66" ref="I28"/>
+    <hyperlink r:id="rId67" ref="G29"/>
+    <hyperlink r:id="rId68" ref="L29"/>
+    <hyperlink r:id="rId69" ref="F30"/>
+    <hyperlink r:id="rId70" ref="F31"/>
+    <hyperlink r:id="rId71" ref="L31"/>
+    <hyperlink r:id="rId72" ref="F32"/>
+    <hyperlink r:id="rId73" ref="G32"/>
+    <hyperlink r:id="rId74" ref="H32"/>
+    <hyperlink r:id="rId75" ref="I32"/>
+    <hyperlink r:id="rId76" ref="G33"/>
+    <hyperlink r:id="rId77" ref="F34"/>
+    <hyperlink r:id="rId78" ref="G34"/>
+    <hyperlink r:id="rId79" ref="F35"/>
+    <hyperlink r:id="rId80" ref="G35"/>
+    <hyperlink r:id="rId81" ref="F36"/>
+    <hyperlink r:id="rId82" ref="F37"/>
+    <hyperlink r:id="rId83" ref="H37"/>
+    <hyperlink r:id="rId84" ref="I37"/>
+    <hyperlink r:id="rId85" ref="K37"/>
+    <hyperlink r:id="rId86" ref="F38"/>
+    <hyperlink r:id="rId87" ref="G38"/>
+    <hyperlink r:id="rId88" ref="F39"/>
+    <hyperlink r:id="rId89" ref="G39"/>
+    <hyperlink r:id="rId90" ref="I39"/>
+    <hyperlink r:id="rId91" ref="F40"/>
+    <hyperlink r:id="rId92" ref="G40"/>
+    <hyperlink r:id="rId93" ref="J40"/>
+    <hyperlink r:id="rId94" ref="F41"/>
+    <hyperlink r:id="rId95" ref="G41"/>
+    <hyperlink r:id="rId96" ref="F42"/>
+    <hyperlink r:id="rId97" ref="G42"/>
+    <hyperlink r:id="rId98" ref="I42"/>
+    <hyperlink r:id="rId99" ref="J42"/>
+    <hyperlink r:id="rId100" ref="F43"/>
+    <hyperlink r:id="rId101" ref="G43"/>
+    <hyperlink r:id="rId102" ref="F44"/>
+    <hyperlink r:id="rId103" ref="G44"/>
+    <hyperlink r:id="rId104" ref="H44"/>
+    <hyperlink r:id="rId105" ref="I44"/>
+    <hyperlink r:id="rId106" ref="F45"/>
+    <hyperlink r:id="rId107" ref="G45"/>
+    <hyperlink r:id="rId108" ref="F46"/>
+    <hyperlink r:id="rId109" ref="F47"/>
+    <hyperlink r:id="rId110" ref="G47"/>
+    <hyperlink r:id="rId111" ref="H47"/>
+    <hyperlink r:id="rId112" ref="I47"/>
+    <hyperlink r:id="rId113" ref="F48"/>
+    <hyperlink r:id="rId114" ref="F49"/>
+    <hyperlink r:id="rId115" ref="F50"/>
+    <hyperlink r:id="rId116" ref="F51"/>
+    <hyperlink r:id="rId117" ref="F52"/>
+    <hyperlink r:id="rId118" ref="G52"/>
+    <hyperlink r:id="rId119" ref="F53"/>
+    <hyperlink r:id="rId120" ref="H53"/>
+    <hyperlink r:id="rId121" ref="F54"/>
+    <hyperlink r:id="rId122" ref="F55"/>
+    <hyperlink r:id="rId123" ref="G55"/>
+    <hyperlink r:id="rId124" ref="F56"/>
+    <hyperlink r:id="rId125" ref="G56"/>
+    <hyperlink r:id="rId126" ref="F57"/>
+    <hyperlink r:id="rId127" ref="G57"/>
+    <hyperlink r:id="rId128" ref="F58"/>
+    <hyperlink r:id="rId129" ref="F59"/>
+    <hyperlink r:id="rId130" ref="F60"/>
+    <hyperlink r:id="rId131" ref="G60"/>
+    <hyperlink r:id="rId132" ref="F61"/>
+    <hyperlink r:id="rId133" ref="G61"/>
+    <hyperlink r:id="rId134" ref="F62"/>
+    <hyperlink r:id="rId135" ref="B63"/>
   </hyperlinks>
-  <drawing r:id="rId133"/>
+  <drawing r:id="rId136"/>
 </worksheet>
 </file>